--- a/data/Game/Race.xlsx
+++ b/data/Game/Race.xlsx
@@ -1,815 +1,810 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{593242C0-5763-4AFB-AC48-E5A5E843270F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <workbookPr autoCompressPictures="1"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="600"/>
   </bookViews>
   <sheets>
-    <sheet name="Race" sheetId="1" r:id="rId1"/>
+    <sheet name="Race" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Race!$A$2:$H$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1"><![CDATA[Race!$A$2:$H$2]]></definedName>
   </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="260">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>name_EN</t>
-  </si>
-  <si>
-    <t>name_JP</t>
-  </si>
-  <si>
-    <t>detail</t>
-  </si>
-  <si>
-    <t>detail_EN</t>
-  </si>
-  <si>
-    <t>detail_JP</t>
-  </si>
-  <si>
-    <t>yerles</t>
-  </si>
-  <si>
-    <t>EA 23.200 Patch 2</t>
-  </si>
-  <si>
-    <t>イエルス</t>
-  </si>
-  <si>
-    <t>The Yerles, people of the rising New Kingdom in Sierre Terre, trace their lineage back to slaves who escaped from Eulderna. Harboring deep-seated hatred towards the empire and everything it represents; they have established the pinnacle of mechanical civilizations in Sierre. Gifted with a heightened learning capacity, adept in handling mechanized armaments, they acquire feats faster than any other races.</t>
-  </si>
-  <si>
-    <t>シエラ・テールで急速に台頭してきた新王国イエルの民がイェルスです。彼らの祖先はエウダーナから脱走した奴隷であり、帝国と帝国の生み出した全てのものを憎んでいます。シエラ随一の機械文明を築き上げた彼らは、高い学習能力を持ち、機械武装の扱いにたけ、他の種族よりも早くフィートを獲得できます。</t>
-  </si>
-  <si>
-    <t>eulderna</t>
-  </si>
-  <si>
-    <t>エウダーナ</t>
-  </si>
-  <si>
-    <t>One of the most ancient nations in Sierre Terre, Eulderna wields vast knowledge of magic and magical weaponry. Recognized and feared as the desert empire by the world, they bear a sense of chosen destiny, believing that only they are worthy of steering the world's course. They are cruel perfectionists. Euldernains are skilled in magic and magical tools, making them apt for caster and intermediate professions.</t>
-  </si>
-  <si>
-    <t>エウダーナはシエラ・テールに存在する最も古い国の一つです。強大な魔法と魔道兵器の知識を有し、砂漠の帝国として各国から恐れられています。彼らは、自分たちのみが世界を動かすに値すると考える選民意識の持ち主で、残虐な完ぺき主義者です。エウダーナ人は魔法や魔法道具の扱いにたけ、キャスターや中間的な職業に向いています。</t>
-  </si>
-  <si>
-    <t>fairy</t>
-  </si>
-  <si>
-    <t>妖精</t>
-  </si>
-  <si>
-    <t>Delicate, frail, and fleeting, fairies boast higher magical prowess, evasion, and unmatched speed compared to humans. They hold high resistance to nearly all elements. However, their physical fragility limits them from wearing gear heavier than 1s, making bolstering defenses a challenge. A single substantial physical attack could place them in peril.</t>
-  </si>
-  <si>
-    <t>妖精は可憐で非力で儚い生物です。彼女達は、人間族と比べて高い魔力と回避力、目にも止まらぬすばしっこさを持ち、ほぼ全ての耐性に高い抵抗力を持っています。反面、妖精は重さ1s以上の装備を身につけることができず、防御力をあげるのは困難です。その体力の低さからも、まともな物理攻撃を一度でもくらうと危機に陥るでしょう。</t>
-  </si>
-  <si>
-    <t>dwarf</t>
-  </si>
-  <si>
-    <t>hillfolk</t>
-  </si>
-  <si>
-    <t>丘の民</t>
-  </si>
-  <si>
-    <t>The Hillfolk are a stout and rugged race of short stature. Once, they built grand cities of gold and gems deep beneath the earth, but much of those splendors now remains only as ruins inhabited by dangerous monsters. Possessing advanced mining and crafting skills, their compact, sturdy bodies are equipped to thrive in the darkest and most toxic of environments. They have a profound love for alcohol and can summon strength beyond their usual capabilities when they drink.</t>
-  </si>
-  <si>
-    <t>丘の民は、頑強で無骨な背が低い種族です。かつて地下深くに黄金と宝石の都を築いた彼らですが、その栄光の多くは、今や危険な魔物が住みつく遺跡として残るのみとなっています。丘の民は高い採掘技術と生産技術を持ち、ずんぐりした小さい体は強靭で、暗闇や毒の環境でも生存する能力を持っています。彼らは酒をこよなく愛し、酒を飲むことで普段以上の力を発揮することができます。</t>
-  </si>
-  <si>
-    <t>juere</t>
-  </si>
-  <si>
-    <t>ジューア</t>
-  </si>
-  <si>
-    <t>Nomads of South Tyris without a homeland, the Juere often drift into banditry, making them notorious in Tyris. They cherish freedom, loathe constraints, and prioritize personal autonomy. Gifted with dexterous hands, sharp senses, and a high learning ability, they are masters of all trades. They can earn their living through performances and can survive on minimal sustenance.</t>
-  </si>
-  <si>
-    <t>ジューアは国を持たないサウスティリスの遊牧民です。彼らは時に盗賊やならず者の集団へと転じるため、ティリスでの評判はあまり芳しくありません。彼らは束縛されることを嫌い、自分の意思を尊重し、自由に生きることを好みます。ジューアは手先が器用で、鋭い感覚と高い学習能力を持ち、多彩な技術に精通しています。彼らはパフォーマンスをすることで生計をたてることができ、少ない食事で生き抜く術を会得しています。</t>
-  </si>
-  <si>
-    <t>elea</t>
-  </si>
-  <si>
-    <t>エレア</t>
-  </si>
-  <si>
-    <t>Among the oldest and most mysterious races in Sierre Terre, the Elea are serene, mystical, and beautiful beings. Preferring isolation, they live peacefully in forests. They have resistance to ether and vast magical powers, with the capability to mitigate damage from magical backlash.</t>
-  </si>
-  <si>
-    <t>エレアはシエラ・テールでもっとも古い、大人しく、神秘的で、美しい種族です。彼らは他の種族との干渉を避け、森の中で静かに暮らすことを好みます。エレアはエーテルへの耐性と高い魔力を持ち、魔力の反動によるダメージを軽減することができます。</t>
-  </si>
-  <si>
-    <t>mutant</t>
-  </si>
-  <si>
-    <t>chaos shape</t>
-  </si>
-  <si>
-    <t>カオスシェイプ</t>
-  </si>
-  <si>
-    <t>Little is known about the Chaos Shape, also referred to as the "Deformed Ones." They barely retain a human form. Chaos Shapes acquire new body parts as they grow, but what emerges is unpredictable.</t>
-  </si>
-  <si>
-    <t>カオスシェイプについて分かっていることは、ほとんどありません。異形の人とも呼ばれる彼らは、かろうじて人の形を保っています。カオスシェイプは成長とともに新しい身体の部位を獲得しますが、何が生えてくるかは予測不可能です。</t>
-  </si>
-  <si>
-    <t>snail</t>
-  </si>
-  <si>
-    <t>かたつむり</t>
-  </si>
-  <si>
-    <t>The snail is a notably sluggish creature. Fragile, weak, clumsy, and devoid of learning aptitude, they can be dissolved by salt.</t>
-  </si>
-  <si>
-    <t>カタツムリは非常に鈍い生き物です。彼らは脆く、非力で、不器用で、学習能力がなく、塩で溶けます。</t>
-  </si>
-  <si>
-    <t>lich</t>
-  </si>
-  <si>
-    <t>リッチ</t>
-  </si>
-  <si>
-    <t>Immortal undead endowed with immense intelligence and magic, Liches possess greater mana and meditation skills than other races. However, they lack the physical stamina for direct combat. While liches have resistance to several elements, they are vulnerable to fire.</t>
-  </si>
-  <si>
-    <t>リッチは高い知能と魔力を備えた不朽のアンデッドです。彼らは他の種族よりも高いマナと瞑想の技術を得ますが、肉弾戦に耐え切れるほどの体力はありません。リッチは幾つかの属性への耐性を持っていますが、炎は苦手です。</t>
-  </si>
-  <si>
-    <t>wraith</t>
-  </si>
-  <si>
-    <t>幽鬼</t>
-  </si>
-  <si>
-    <t>Immortal undead endowed with immense intelligence and magic, Wraiths possess greater mana and meditation skills than other races. However, they lack the physical stamina for direct combat. While wraiths have resistance to several elements, they are vulnerable to fire.</t>
-  </si>
-  <si>
-    <t>幽鬼は高い知能と魔力を備えた不朽のアンデッドです。彼らは他の種族よりも高いマナと瞑想の技術を得ますが、肉弾戦に耐え切れるほどの体力はありません。幽鬼は幾つかの属性への耐性を持っていますが、炎は苦手です。</t>
-  </si>
-  <si>
-    <t>golem</t>
-  </si>
-  <si>
-    <t>ゴーレム</t>
-  </si>
-  <si>
-    <t>Golems are materials imbued with life through magical means. Compared to other races, they boast vastly superior physical strength. However, perhaps as a trade-off, their mana and speed are notably inferior. Golems have a strong resistance to poison, are immune to bleeding, and possess the advantage of not succumbing to a state of being dazed.</t>
-  </si>
-  <si>
-    <t>ゴーレムは魔力により生命を与えられた物質です。ゴーレムは他の種族に比べ遥かに高い体力を持っています。その代償としてか、彼らのマナと速度は、通常よりも劣っています。ゴーレムには毒への強い耐性があり、また出血と朦朧状態にならないという利点があります。</t>
-  </si>
-  <si>
-    <t>mifu</t>
-  </si>
-  <si>
-    <t>ミフ</t>
-  </si>
-  <si>
-    <t>The Mifu are a hybrid race of fox-human who live quietly in a corner of Tyris. Unlike their sister race, the Nefu, they are characterized by their white hair and fur, and large fluffy ears that stand up straight. They are cheerful and mischievous, and while they aren't particularly resilient, they make up for it with their outstanding knowledge of blessings and curses.</t>
-  </si>
-  <si>
-    <t>ミフはティリスの片隅でひっそりと暮らす狐と人間の亜種族で、姉妹種族のネフとは異なり、白い髪と毛皮、ピンと垂直にたった大きな耳が特徴的です。彼らは明るく、悪戯好きで、あまり打たれ強くはないものの、卓越した祝福と呪いの知識を持っています。</t>
-  </si>
-  <si>
-    <t>nefu</t>
-  </si>
-  <si>
-    <t>ネフ</t>
-  </si>
-  <si>
-    <t>Featuring red hair and fur, ample bosoms, and fluffy tails that increase in number as they age, the Nefu are a hybrid fox-human race. Similar to the Mifu, they reside far from human settlements. However, their striking beauty, combined with their distinctive spellsword combat style, has become a topic of fascination among adventurers.</t>
-  </si>
-  <si>
-    <t>ネフは赤い髪と毛皮、大きな胸とふさふさの多尾が特徴的な、狐と人間の亜種族です。姉妹種族のミフ同様に、人里から離れて暮らしていますが、その美しさ、そして魔法と長剣を操り舞うように戦う独特の流儀は、冒険者の間でもよく囁かれています。</t>
-  </si>
-  <si>
-    <t>succubus</t>
-  </si>
-  <si>
-    <t>サキュバス</t>
-  </si>
-  <si>
-    <t>Known by the alias "Lunar" or "Moonlit Kins", Succubi are said to appear by one's bedside on beautiful moonlit nights, tempting humans with their allure. The reality of this is whether the moon is out or not, night or day, they simply adore pleasurable experiences. They possess both high charisma and magic, growing stronger by indulging in sensations of pleasure.</t>
-  </si>
-  <si>
-    <t>月夜の眷属、ルナーという別名でも知られるサキュバスは、月の美しい夜に枕元に現れ、人々を誘惑すると言い伝えられています。実際には、月が出ていようとなかろうと、夜であろうとなかろうと、気持ちいいことが大好きです。彼らは高い魅力と魔力を持ち、快感に耽ることで成長します。</t>
-  </si>
-  <si>
-    <t>demigod</t>
-  </si>
-  <si>
-    <t>半神</t>
-  </si>
-  <si>
-    <t>Demigods are the offspring of a god incarnate who descended to the earth and mingled with humans. Most of them are the product of the gods' whims, and it is rare for them to realize their own origins or their unique abilities. They possess beauty akin to that of the gods, well-balanced abilities, strong vitality, and mana.</t>
-  </si>
-  <si>
-    <t>半神は地上に降り立った神の化身が人間と交わった結果生まれた子供たちです。その多くは神々の戯れの産物であり、彼らが自身の出自や特異な能力に気づくことは稀です。彼らは神の造形がごとく美しく、均整の取れた能力を持ち、強い生命力とマナを備えています。</t>
-  </si>
-  <si>
-    <t>centaur</t>
-  </si>
-  <si>
-    <t>ケンタウロス</t>
-  </si>
-  <si>
-    <t>Centaurs are a half-human, half-beast race who embody both a powerful physique and wisdom. Their noble figures, galloping across the wilderness and battlefield alike, have been celebrated in countless tales. Though averse to sorcery, they more than make up for it with their mastery of archery. Among them, rare individuals awaken to the “Seventh Sense,” a gift that grants abilities far beyond ordinary beings, and their arrows are said to never miss their mark.</t>
-  </si>
-  <si>
-    <t>ケンタウロスは、強靭な肉体と叡智を併せ持つ半人半獣族です。荒野や戦場を駆け抜けるその高貴な姿は、古来より多くの英雄譚に語られています。彼らは魔術を苦手としていますが、それを補って余りあるほどの射撃術を誇ります。彼らの中には、稀に「第七感」に目覚める者が現れるとされ、それにより解き放たれる能力は常人をはるかに凌ぎ、矢は必ず標的を捉えると言われています。</t>
-  </si>
-  <si>
-    <t>shiba</t>
-  </si>
-  <si>
-    <t>シバ</t>
-  </si>
-  <si>
-    <t>The Shiba, while diverse in appearance and ecology, are generally known for their sturdy build and friendly, submissive nature. They are intelligent and adorable. and possess resistance to cold.</t>
-  </si>
-  <si>
-    <t>シバは多様な種族により形成され、その外見や生態も様々ですが、総じてがっちりした体格と、友好的で従順な性格で知られています。彼らは賢く、キュートで、氷に対する耐性を持っています。</t>
-  </si>
-  <si>
-    <t>eldercrab</t>
-  </si>
-  <si>
-    <t>elder crab</t>
-  </si>
-  <si>
-    <t>古代蟹</t>
-  </si>
-  <si>
-    <t>The Elder Crab is the oldest of the crab species, preferring waterside habitats and evolving into various elements adapted to their environments. They are basically delicious, but their flavor changes depending on their element. Excelling in strength and endurance, they can restrain enemies with their massive pincers and are capable of exhaling a bubble breath.</t>
-  </si>
-  <si>
-    <t>古代蟹は最も古い蟹の種族で、水辺を好み、生息する地域に適応し様々な属性へと進化しています。基本的には美味しいものの、属性によって風味も変化します。筋力と耐久に秀で、その巨大なハサミで敵を拘束し、また泡のブレスを吐くことができます。</t>
-  </si>
-  <si>
-    <t>goblin</t>
-  </si>
-  <si>
-    <t>ゴブリン</t>
-  </si>
-  <si>
-    <t>kobolt</t>
-  </si>
-  <si>
-    <t>kobold</t>
-  </si>
-  <si>
-    <t>コボルト</t>
-  </si>
-  <si>
-    <t>orc</t>
-  </si>
-  <si>
-    <t>オーク</t>
-  </si>
-  <si>
-    <t>troll</t>
-  </si>
-  <si>
-    <t>トロール</t>
-  </si>
-  <si>
-    <t>lizardman</t>
-  </si>
-  <si>
-    <t>リザードマン</t>
-  </si>
-  <si>
-    <t>minotaur</t>
-  </si>
-  <si>
-    <t>ミノタウロス</t>
-  </si>
-  <si>
-    <t>norland</t>
-  </si>
-  <si>
-    <t>ノーランド</t>
-  </si>
-  <si>
-    <t>asura</t>
-  </si>
-  <si>
-    <t>阿修羅</t>
-  </si>
-  <si>
-    <t>slime</t>
-  </si>
-  <si>
-    <t>スライム</t>
-  </si>
-  <si>
-    <t>wolf</t>
-  </si>
-  <si>
-    <t>狼</t>
-  </si>
-  <si>
-    <t>zombie</t>
-  </si>
-  <si>
-    <t>ゾンビ</t>
-  </si>
-  <si>
-    <t>rabbit</t>
-  </si>
-  <si>
-    <t>ウサギ</t>
-  </si>
-  <si>
-    <t>sheep</t>
-  </si>
-  <si>
-    <t>羊</t>
-  </si>
-  <si>
-    <t>frog</t>
-  </si>
-  <si>
-    <t>蛙</t>
-  </si>
-  <si>
-    <t>centipede</t>
-  </si>
-  <si>
-    <t>ムカデ</t>
-  </si>
-  <si>
-    <t>mandrake</t>
-  </si>
-  <si>
-    <t>マンドレイク</t>
-  </si>
-  <si>
-    <t>beetle</t>
-  </si>
-  <si>
-    <t>甲虫</t>
-  </si>
-  <si>
-    <t>mushroom</t>
-  </si>
-  <si>
-    <t>きのこ</t>
-  </si>
-  <si>
-    <t>bat</t>
-  </si>
-  <si>
-    <t>コウモリ</t>
-  </si>
-  <si>
-    <t>ent</t>
-  </si>
-  <si>
-    <t>エント</t>
-  </si>
-  <si>
-    <t>hound</t>
-  </si>
-  <si>
-    <t>猟犬</t>
-  </si>
-  <si>
-    <t>ghost</t>
-  </si>
-  <si>
-    <t>幽霊</t>
-  </si>
-  <si>
-    <t>spirit</t>
-  </si>
-  <si>
-    <t>精霊</t>
-  </si>
-  <si>
-    <t>eye</t>
-  </si>
-  <si>
-    <t>目</t>
-  </si>
-  <si>
-    <t>wyvern</t>
-  </si>
-  <si>
-    <t>ワイバーン</t>
-  </si>
-  <si>
-    <t>wasp</t>
-  </si>
-  <si>
-    <t>ワスプ</t>
-  </si>
-  <si>
-    <t>giant</t>
-  </si>
-  <si>
-    <t>巨人</t>
-  </si>
-  <si>
-    <t>imp</t>
-  </si>
-  <si>
-    <t>インプ</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>手</t>
-  </si>
-  <si>
-    <t>snake</t>
-  </si>
-  <si>
-    <t>蛇</t>
-  </si>
-  <si>
-    <t>drake</t>
-  </si>
-  <si>
-    <t>ドレイク</t>
-  </si>
-  <si>
-    <t>bear</t>
-  </si>
-  <si>
-    <t>熊</t>
-  </si>
-  <si>
-    <t>armor</t>
-  </si>
-  <si>
-    <t>鎧</t>
-  </si>
-  <si>
-    <t>medusa</t>
-  </si>
-  <si>
-    <t>メデューサ</t>
-  </si>
-  <si>
-    <t>cupid</t>
-  </si>
-  <si>
-    <t>キューピット</t>
-  </si>
-  <si>
-    <t>phantom</t>
-  </si>
-  <si>
-    <t>ファントム</t>
-  </si>
-  <si>
-    <t>harpy</t>
-  </si>
-  <si>
-    <t>ハーピー</t>
-  </si>
-  <si>
-    <t>dragon</t>
-  </si>
-  <si>
-    <t>ドラゴン</t>
-  </si>
-  <si>
-    <t>dinosaur</t>
-  </si>
-  <si>
-    <t>恐竜</t>
-  </si>
-  <si>
-    <t>cerberus</t>
-  </si>
-  <si>
-    <t>ケルベロス</t>
-  </si>
-  <si>
-    <t>spider</t>
-  </si>
-  <si>
-    <t>蜘蛛</t>
-  </si>
-  <si>
-    <t>rock</t>
-  </si>
-  <si>
-    <t>岩</t>
-  </si>
-  <si>
-    <t>crab</t>
-  </si>
-  <si>
-    <t>蟹</t>
-  </si>
-  <si>
-    <t>skeleton</t>
-  </si>
-  <si>
-    <t>骸骨</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>駒</t>
-  </si>
-  <si>
-    <t>cat</t>
-  </si>
-  <si>
-    <t>猫</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>犬</t>
-  </si>
-  <si>
-    <t>roran</t>
-  </si>
-  <si>
-    <t>ローラン</t>
-  </si>
-  <si>
-    <t>mermaid</t>
-  </si>
-  <si>
-    <t>人魚</t>
-  </si>
-  <si>
-    <t>rat</t>
-  </si>
-  <si>
-    <t>ねずみ</t>
-  </si>
-  <si>
-    <t>shell</t>
-  </si>
-  <si>
-    <t>やどかり</t>
-  </si>
-  <si>
-    <t>machine</t>
-  </si>
-  <si>
-    <t>機械</t>
-  </si>
-  <si>
-    <t>wisp</t>
-  </si>
-  <si>
-    <t>ウィスプ</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>鶏</t>
-  </si>
-  <si>
-    <t>stalker</t>
-  </si>
-  <si>
-    <t>ストーカー</t>
-  </si>
-  <si>
-    <t>yeek</t>
-  </si>
-  <si>
-    <t>イーク</t>
-  </si>
-  <si>
-    <t>yith</t>
-  </si>
-  <si>
-    <t>イス</t>
-  </si>
-  <si>
-    <t>octopus</t>
-  </si>
-  <si>
-    <t>タコ</t>
-  </si>
-  <si>
-    <t>horse</t>
-  </si>
-  <si>
-    <t>馬</t>
-  </si>
-  <si>
-    <t>quickling</t>
-  </si>
-  <si>
-    <t>クイックリング</t>
-  </si>
-  <si>
-    <t>metal</t>
-  </si>
-  <si>
-    <t>メタル</t>
-  </si>
-  <si>
-    <t>bike</t>
-  </si>
-  <si>
-    <t>バイク</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>魚</t>
-  </si>
-  <si>
-    <t>animal</t>
-  </si>
-  <si>
-    <t>pig</t>
-  </si>
-  <si>
-    <t>豚</t>
-  </si>
-  <si>
-    <t>catgod</t>
-  </si>
-  <si>
-    <t>猫の神</t>
-  </si>
-  <si>
-    <t>machinegod</t>
-  </si>
-  <si>
-    <t>機械の神</t>
-  </si>
-  <si>
-    <t>undeadgod</t>
-  </si>
-  <si>
-    <t>死霊の神</t>
-  </si>
-  <si>
-    <t>catsister</t>
-  </si>
-  <si>
-    <t>妹猫</t>
-  </si>
-  <si>
-    <t>demon</t>
-  </si>
-  <si>
-    <t>悪魔</t>
-  </si>
-  <si>
-    <t>servant</t>
-  </si>
-  <si>
-    <t>apostle</t>
-  </si>
-  <si>
-    <t>使徒</t>
-  </si>
-  <si>
-    <t>god</t>
-  </si>
-  <si>
-    <t>神</t>
-  </si>
-  <si>
-    <t>EA 23.19</t>
-  </si>
-  <si>
-    <t>Alpha 15.1</t>
-  </si>
-  <si>
-    <t>Alpha 11.1</t>
-  </si>
-  <si>
-    <t>Beta 22.23</t>
-  </si>
-  <si>
-    <t>Alpha 20.8</t>
-  </si>
-  <si>
-    <t>Alpha 20.64</t>
-  </si>
-  <si>
-    <t>Alpha 17.1</t>
-  </si>
-  <si>
-    <t>EA 23.27 fix 2</t>
-  </si>
-  <si>
-    <t>EA 23.116</t>
-  </si>
-  <si>
-    <t>Alpha 20.40</t>
-  </si>
-  <si>
-    <t>EA 23.97</t>
-  </si>
-  <si>
-    <t>Alpha 20.27</t>
-  </si>
-  <si>
-    <t>Yerles là cư dân của Vương quốc mới đang trỗi dậy tại Sierre Terre. Tổ tiên họ là những nô lệ thoát khỏi tay Eulderna, mang trong lòng căm ghét đế quốc cùng mọi thứ mà nó tạo ra. Họ đã xây dựng nền văn minh cơ khí tiên tiến nhất tại Sierre, sở hữu khả năng học hỏi vượt trội, thành thạo vũ khí cơ khí, và có thể nhanh chóng đạt được thành tựu hơn bất kỳ chủng tộc nào khác.</t>
-  </si>
-  <si>
-    <t>Eulderna là một trong những quốc gia cổ xưa nhất tại Sierre Terre. Họ sở hữu kiến thức sâu rộng về ma pháp và vũ khí ma thuật, được thế giới biết đến và e sợ dưới danh xưng Đế quốc sa mạc. Họ là những kẻ theo đuổi chủ nghĩa tàn nhẫn với ý thức chọn lọc, tin rằng chỉ mình họ xứng đáng quyết định cục diện thế giới. Người Eulderna thành thạo sử dụng ma pháp và đồ vật ma thuật, phù hợp với các vai trò pháp sư hoặc chiến binh trung gian.</t>
-  </si>
-  <si>
-    <t>Tiên là một chủng tộc duyên dáng, thần bí nhưng mong manh. So với con người, họ nổi bật về ma pháp, khả năng né tránh và tốc độ phi thường. Hầu hết các loại kháng tính của họ đều rất cao, nhưng cơ thể yếu ớt khiến họ không thể trang bị những vật nặng hơn 1s, khiến việc tăng cường phòng thủ trở nên khó khăn. Thêm vào đó, thể lực thấp khiến họ chỉ cần bị một đòn vật lý nghiêm trọng đánh trúng là có thể rơi vào tình trạng nguy hiểm.</t>
-  </si>
-  <si>
-    <t>Là một chủng tộc thấp bé nhưng cứng cỏi và thô ráp. Họ từng xây dựng những thành phố vàng và ngọc sâu dưới lòng đất, nhưng phần lớn vẻ tráng lệ đó giờ chỉ còn là những tàn tích, nơi sinh sống của quái vật nguy hiểm. Họ thành thạo kỹ năng khai thác và sản xuất; cơ thể nhỏ bé nhưng rắn chắc, thậm chí có thể tồn tại trong môi trường tối tăm hoặc độc hại. Họ say mê rượu, và khi uống, sức mạnh của họ còn vượt xa bình thường.</t>
-  </si>
-  <si>
-    <t>Juere là những người du mục từ Nam Tyris, không có quốc gia riêng. Họ đôi khi trở thành băng cướp và nhóm tội phạm, khiến danh tiếng của họ ở Tyris không mấy tốt đẹp. Họ ghét bị ràng buộc, yêu thích tự do và sống theo ý muốn. Juere khéo léo, nhạy bén và học hỏi nhanh, thành thạo nhiều kỹ năng khác nhau. Họ có thể kiếm sống bằng biểu diễn và biết cách sinh tồn chỉ với lượng thức ăn tối thiểu.</t>
-  </si>
-  <si>
-    <t>Elea là một trong những chủng tộc cổ xưa, hiền hòa, thần bí và xinh đẹp nhất tại Sierre Terre. Họ tránh giao tiếp với các chủng tộc khác và thích sống yên bình trong rừng. Elea sở hữu khả năng kháng thể và sức mạnh ma pháp lớn, có thể giảm bớt sát thương từ phản ứng ngược của ma thuật.</t>
-  </si>
-  <si>
-    <t>Con người biết rất ít về Hình thể Hỗn độn, còn được gọi là “Dị hình nhân”. Chúng chỉ vừa đủ giữ dáng người. Khi trưởng thành, Hình thể Hỗn độn sẽ mọc thêm các bộ phận cơ thể mới, nhưng không thể đoán trước được chúng sẽ ra sao.</t>
-  </si>
-  <si>
-    <t>Ốc sên là loài sinh vật vô cùng chậm chạp. Chúng mong manh, yếu ớt, vụng về và khả năng học hỏi kém; gặp muối thì có thể tan ra.</t>
-  </si>
-  <si>
-    <t>Lich là sinh vật bất tử sở hữu trí tuệ cao và sức mạnh ma pháp phi thường. Họ có ma lực và khả năng thiền định vượt trội so với các chủng tộc khác, nhưng thể lực lại không đủ để chịu đựng chiến đấu cận chiến. Lich kháng được một số loại thuộc tính, nhưng lại yếu với lửa.</t>
-  </si>
-  <si>
-    <t>Hồn ma là sinh vật bất tử và bất diệt, sở hữu trí tuệ cao và sức mạnh ma pháp phi thường. So với các chủng tộc khác, họ có ma lực và kỹ năng thiền định vượt trội, nhưng thể lực không đủ để chịu đựng chiến đấu cận chiến. Hồn ma kháng nhiều loại thuộc tính, nhưng lại yếu trước lửa.</t>
-  </si>
-  <si>
-    <t>Golem là những vật thể được ban sự sống nhờ ma thuật. So với các chủng tộc khác, họ sở hữu sức mạnh thể chất vượt trội. Tuy nhiên, đổi lại, ma lực và tốc độ của họ lại thấp hơn hẳn. Golem có khả năng kháng độc mạnh, miễn nhiễm với chảy máu, và không bị rối loạn hay choáng.</t>
-  </si>
-  <si>
-    <t>Mifu là một chủng tộc lai giữa cáo và con người, sống ẩn mình ở những góc khuất của Tyris. Khác với chủng tộc chị em Nefu, Mifu có đặc điểm là tóc và lông trắng cùng đôi tai lớn dựng thẳng. Chúng có tính cách vui vẻ, thích nghịch ngợm, tuy khả năng chịu đựng kém, nhưng bù lại sở hữu kiến thức xuất sắc về chúc phúc và lời nguyền.</t>
-  </si>
-  <si>
-    <t>Nefu là một chủng tộc lai giữa cáo và con người, đặc trưng bởi mái tóc và lông đỏ, vòng một đầy đặn, cùng nhiều chiếc đuôi xù, số lượng tăng theo tuổi tác. Giống như Mifu, họ sống xa các khu định cư của con người. Vẻ đẹp nổi bật và phong cách chiến đấu kết hợp ma pháp cùng kiếm dài của họ thường là đề tài được các nhà thám hiểm truyền tai nhau.</t>
-  </si>
-  <si>
-    <t>Succubi, còn được gọi là “Hồn Trăng” hay “Lunar”, theo truyền thuyết sẽ xuất hiện bên gối của con người vào những đêm trăng sáng để quyến rũ. Thực tế, bất kể trăng sáng hay không, ngày hay đêm, chúng đều yêu thích những thú vui khoái lạc. Chúng sở hữu sức quyến rũ và ma lực cao, và càng trở nên mạnh mẽ khi đắm chìm trong khoái cảm.</t>
-  </si>
-  <si>
-    <t>Bán thần là những đứa trẻ sinh ra từ sự kết hợp giữa hiện thân của thần giáng xuống trần gian và con người. Phần lớn trong số họ chỉ là kết quả của trò đùa thoáng qua của các vị thần, và hiếm khi nhận thức được nguồn gốc hay năng lực đặc biệt của bản thân. Họ sở hữu nhan sắc như thần, khả năng cân bằng, sinh lực dồi dào và ma lực mạnh mẽ.</t>
-  </si>
-  <si>
-    <t>Shiba được hình thành từ nhiều chủng tộc khác nhau, vì vậy ngoại hình và sinh thái của họ cũng rất đa dạng. Tuy nhiên, nhìn chung họ nổi tiếng với thể hình rắn rỏi và tính cách thân thiện, ngoan ngoãn. Họ thông minh, dễ thương, có khả năng kháng lạnh và sở hữu năng lực đặc biệt biến mọi đòn tấn công thành thuộc tính băng.</t>
-  </si>
-  <si>
-    <t>Cua Cổ Đại là chủng loài cua lâu đời nhất, ưa sống gần nguồn nước và tiến hóa theo các thuộc tính khác nhau tùy theo môi trường sinh sống. Chúng nhìn chung rất ngon, nhưng hương vị cũng thay đổi theo từng thuộc tính. Cua Cổ Đại sở hữu sức mạnh và thể chất vượt trội, có thể kìm giữ kẻ thù bằng chiếc càng khổng lồ, đồng thời có khả năng phun hơi bọt.</t>
-  </si>
-  <si>
-    <t>nhân mã</t>
-  </si>
-  <si>
-    <t>Centaur là chủng tộc nửa người nửa thú, vừa sở hữu thể chất cường tráng vừa mang trí tuệ uyên thâm. Hình bóng cao quý của họ tung vó trên thảo nguyên và cả chiến trường đã được ca tụng trong vô số truyền thuyết. Dù kém cỏi về ma thuật, họ lại bù đắp bằng tài thiện xạ xuất chúng. Trong số họ, hiếm hoi có những cá nhân thức tỉnh “Giác Quan Thứ Bảy”, một ân huệ ban cho sức mạnh vượt xa loài thường, và mũi tên của họ được cho là chưa từng chệch mục tiêu.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="261">
+  <si>
+    <t xml:space="preserve">id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail_EN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">detail_JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yerles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.209 Patch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イエルス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Yerles, people of the rising New Kingdom in Sierre Terre, trace their lineage back to slaves who escaped from Eulderna. Harboring deep-seated hatred towards the empire and everything it represents; they have established the pinnacle of mechanical civilizations in Sierre. Gifted with a heightened learning capacity, adept in handling mechanized armaments, they acquire feats faster than any other races.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シエラ・テールで急速に台頭してきた新王国イエルの民がイェルスです。彼らの祖先はエウダーナから脱走した奴隷であり、帝国と帝国の生み出した全てのものを憎んでいます。シエラ随一の機械文明を築き上げた彼らは、高い学習能力を持ち、機械武装の扱いにたけ、他の種族よりも早くフィートを獲得できます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eulderna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エウダーナ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One of the most ancient nations in Sierre Terre, Eulderna wields vast knowledge of magic and magical weaponry. Recognized and feared as the desert empire by the world, they bear a sense of chosen destiny, believing that only they are worthy of steering the world's course. They are cruel perfectionists. Euldernains are skilled in magic and magical tools, making them apt for caster and intermediate professions.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エウダーナはシエラ・テールに存在する最も古い国の一つです。強大な魔法と魔道兵器の知識を有し、砂漠の帝国として各国から恐れられています。彼らは、自分たちのみが世界を動かすに値すると考える選民意識の持ち主で、残虐な完ぺき主義者です。エウダーナ人は魔法や魔法道具の扱いにたけ、キャスターや中間的な職業に向いています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fairy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖精</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delicate, frail, and fleeting, fairies boast higher magical prowess, evasion, and unmatched speed compared to humans. They hold high resistance to nearly all elements. However, their physical fragility limits them from wearing gear heavier than 1s, making bolstering defenses a challenge. A single substantial physical attack could place them in peril.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妖精は可憐で非力で儚い生物です。彼女達は、人間族と比べて高い魔力と回避力、目にも止まらぬすばしっこさを持ち、ほぼ全ての耐性に高い抵抗力を持っています。反面、妖精は重さ1s以上の装備を身につけることができず、防御力をあげるのは困難です。その体力の低さからも、まともな物理攻撃を一度でもくらうと危機に陥るでしょう。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dwarf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hillfolk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丘の民</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hillfolk are a stout and rugged race of short stature. Once, they built grand cities of gold and gems deep beneath the earth, but much of those splendors now remains only as ruins inhabited by dangerous monsters. Possessing advanced mining and crafting skills, their compact, sturdy bodies are equipped to thrive in the darkest and most toxic of environments. They have a profound love for alcohol and can summon strength beyond their usual capabilities when they drink.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">丘の民は、頑強で無骨な背が低い種族です。かつて地下深くに黄金と宝石の都を築いた彼らですが、その栄光の多くは、今や危険な魔物が住みつく遺跡として残るのみとなっています。丘の民は高い採掘技術と生産技術を持ち、ずんぐりした小さい体は強靭で、暗闇や毒の環境でも生存する能力を持っています。彼らは酒をこよなく愛し、酒を飲むことで普段以上の力を発揮することができます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">juere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジューア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nomads of South Tyris without a homeland, the Juere often drift into banditry, making them notorious in Tyris. They cherish freedom, loathe constraints, and prioritize personal autonomy. Gifted with dexterous hands, sharp senses, and a high learning ability, they are masters of all trades. They can earn their living through performances and can survive on minimal sustenance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ジューアは国を持たないサウスティリスの遊牧民です。彼らは時に盗賊やならず者の集団へと転じるため、ティリスでの評判はあまり芳しくありません。彼らは束縛されることを嫌い、自分の意思を尊重し、自由に生きることを好みます。ジューアは手先が器用で、鋭い感覚と高い学習能力を持ち、多彩な技術に精通しています。彼らはパフォーマンスをすることで生計をたてることができ、少ない食事で生き抜く術を会得しています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エレア</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Among the oldest and most mysterious races in Sierre Terre, the Elea are serene, mystical, and beautiful beings. Preferring isolation, they live peacefully in forests. They have resistance to ether and vast magical powers, with the capability to mitigate damage from magical backlash.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エレアはシエラ・テールでもっとも古い、大人しく、神秘的で、美しい種族です。彼らは他の種族との干渉を避け、森の中で静かに暮らすことを好みます。エレアはエーテルへの耐性と高い魔力を持ち、魔力の反動によるダメージを軽減することができます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mutant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chaos shape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カオスシェイプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little is known about the Chaos Shape, also referred to as the "Deformed Ones." They barely retain a human form. Chaos Shapes acquire new body parts as they grow, but what emerges is unpredictable.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カオスシェイプについて分かっていることは、ほとんどありません。異形の人とも呼ばれる彼らは、かろうじて人の形を保っています。カオスシェイプは成長とともに新しい身体の部位を獲得しますが、何が生えてくるかは予測不可能です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">かたつむり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The snail is a notably sluggish creature. Fragile, weak, clumsy, and devoid of learning aptitude, they can be dissolved by salt.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">カタツムリは非常に鈍い生き物です。彼らは脆く、非力で、不器用で、学習能力がなく、塩で溶けます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lich</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リッチ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immortal undead endowed with immense intelligence and magic, Liches possess greater mana and meditation skills than other races. However, they lack the physical stamina for direct combat. While liches have resistance to several elements, they are vulnerable to fire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リッチは高い知能と魔力を備えた不朽のアンデッドです。彼らは他の種族よりも高いマナと瞑想の技術を得ますが、肉弾戦に耐え切れるほどの体力はありません。リッチは幾つかの属性への耐性を持っていますが、炎は苦手です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wraith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幽鬼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Immortal undead endowed with immense intelligence and magic, Wraiths possess greater mana and meditation skills than other races. However, they lack the physical stamina for direct combat. While wraiths have resistance to several elements, they are vulnerable to fire.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幽鬼は高い知能と魔力を備えた不朽のアンデッドです。彼らは他の種族よりも高いマナと瞑想の技術を得ますが、肉弾戦に耐え切れるほどの体力はありません。幽鬼は幾つかの属性への耐性を持っていますが、炎は苦手です。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">golem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴーレム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golems are materials imbued with life through magical means. Compared to other races, they boast vastly superior physical strength. However, perhaps as a trade-off, their mana and speed are notably inferior. Golems have a strong resistance to poison, are immune to bleeding, and possess the advantage of not succumbing to a state of being dazed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴーレムは魔力により生命を与えられた物質です。ゴーレムは他の種族に比べ遥かに高い体力を持っています。その代償としてか、彼らのマナと速度は、通常よりも劣っています。ゴーレムには毒への強い耐性があり、また出血と朦朧状態にならないという利点があります。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mifu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mifu are a hybrid race of fox-human who live quietly in a corner of Tyris. Unlike their sister race, the Nefu, they are characterized by their white hair and fur, and large fluffy ears that stand up straight. They are cheerful and mischievous, and while they aren't particularly resilient, they make up for it with their outstanding knowledge of blessings and curses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミフはティリスの片隅でひっそりと暮らす狐と人間の亜種族で、姉妹種族のネフとは異なり、白い髪と毛皮、ピンと垂直にたった大きな耳が特徴的です。彼らは明るく、悪戯好きで、あまり打たれ強くはないものの、卓越した祝福と呪いの知識を持っています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nefu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Featuring red hair and fur, ample bosoms, and fluffy tails that increase in number as they age, the Nefu are a hybrid fox-human race. Similar to the Mifu, they reside far from human settlements. However, their striking beauty, combined with their distinctive spellsword combat style, has become a topic of fascination among adventurers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ネフは赤い髪と毛皮、大きな胸とふさふさの多尾が特徴的な、狐と人間の亜種族です。姉妹種族のミフ同様に、人里から離れて暮らしていますが、その美しさ、そして魔法と長剣を操り舞うように戦う独特の流儀は、冒険者の間でもよく囁かれています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">succubus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">サキュバス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Known by the alias "Lunar" or "Moonlit Kins", Succubi are said to appear by one's bedside on beautiful moonlit nights, tempting humans with their allure. The reality of this is whether the moon is out or not, night or day, they simply adore pleasurable experiences. They possess both high charisma and magic, growing stronger by indulging in sensations of pleasure.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月夜の眷属、ルナーという別名でも知られるサキュバスは、月の美しい夜に枕元に現れ、人々を誘惑すると言い伝えられています。実際には、月が出ていようとなかろうと、夜であろうとなかろうと、気持ちいいことが大好きです。彼らは高い魅力と魔力を持ち、快感に耽ることで成長します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demigod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半神</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demigods are the offspring of a god incarnate who descended to the earth and mingled with humans. Most of them are the product of the gods' whims, and it is rare for them to realize their own origins or their unique abilities. They possess beauty akin to that of the gods, well-balanced abilities, strong vitality, and mana.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">半神は地上に降り立った神の化身が人間と交わった結果生まれた子供たちです。その多くは神々の戯れの産物であり、彼らが自身の出自や特異な能力に気づくことは稀です。彼らは神の造形がごとく美しく、均整の取れた能力を持ち、強い生命力とマナを備えています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケンタウロス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centaurs are a half-human, half-beast race who embody both a powerful physique and wisdom. Their noble figures, galloping across the wilderness and battlefield alike, have been celebrated in countless tales. Though averse to sorcery, they more than make up for it with their mastery of archery. Among them, rare individuals awaken to the “Seventh Sense,” a gift that grants abilities far beyond ordinary beings, and their arrows are said to never miss their mark.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケンタウロスは、強靭な肉体と叡智を併せ持つ半人半獣族です。荒野や戦場を駆け抜けるその高貴な姿は、古来より多くの英雄譚に語られています。彼らは魔術を苦手としていますが、それを補って余りあるほどの射撃術を誇ります。彼らの中には、稀に「第七感」に目覚める者が現れるとされ、それにより解き放たれる能力は常人をはるかに凌ぎ、矢は必ず標的を捉えると言われています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shiba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シバ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Shiba, while diverse in appearance and ecology, are generally known for their sturdy build and friendly, submissive nature. They are intelligent and adorable. and possess resistance to cold.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">シバは多様な種族により形成され、その外見や生態も様々ですが、総じてがっちりした体格と、友好的で従順な性格で知られています。彼らは賢く、キュートで、氷に対する耐性を持っています。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eldercrab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elder crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古代蟹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Elder Crab is the oldest of the crab species, preferring waterside habitats and evolving into various elements adapted to their environments. They are basically delicious, but their flavor changes depending on their element. Excelling in strength and endurance, they can restrain enemies with their massive pincers and are capable of exhaling a bubble breath.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">古代蟹は最も古い蟹の種族で、水辺を好み、生息する地域に適応し様々な属性へと進化しています。基本的には美味しいものの、属性によって風味も変化します。筋力と耐久に秀で、その巨大なハサミで敵を拘束し、また泡のブレスを吐くことができます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goblin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゴブリン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobolt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kobold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コボルト</t>
+  </si>
+  <si>
+    <t xml:space="preserve">orc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">オーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">troll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">トロール</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lizardman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">リザードマン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minotaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ミノタウロス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">norland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ノーランド</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">阿修羅</t>
+  </si>
+  <si>
+    <t xml:space="preserve">slime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">スライム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wolf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">狼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zombie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ゾンビ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabbit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウサギ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sheep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">羊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛙</t>
+  </si>
+  <si>
+    <t xml:space="preserve">centipede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ムカデ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mandrake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">マンドレイク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beetle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">甲虫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mushroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">きのこ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">コウモリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">エント</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hound</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猟犬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ghost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">幽霊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">精霊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">目</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wyvern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワイバーン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wasp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワスプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">giant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">巨人</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">インプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">手</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蛇</t>
+  </si>
+  <si>
+    <t xml:space="preserve">drake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドレイク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">熊</t>
+  </si>
+  <si>
+    <t xml:space="preserve">armor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鎧</t>
+  </si>
+  <si>
+    <t xml:space="preserve">medusa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メデューサ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cupid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">キューピット</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phantom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ファントム</t>
+  </si>
+  <si>
+    <t xml:space="preserve">harpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ハーピー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dragon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ドラゴン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dinosaur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恐竜</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cerberus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ケルベロス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蜘蛛</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">岩</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">蟹</t>
+  </si>
+  <si>
+    <t xml:space="preserve">skeleton</t>
+  </si>
+  <si>
+    <t xml:space="preserve">骸骨</t>
+  </si>
+  <si>
+    <t xml:space="preserve">piece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">駒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dog</t>
+  </si>
+  <si>
+    <t xml:space="preserve">犬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ローラン</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mermaid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人魚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ねずみ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">やどかり</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機械</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wisp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ウィスプ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chicken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">鶏</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stalker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ストーカー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yeek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イーク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">イス</t>
+  </si>
+  <si>
+    <t xml:space="preserve">octopus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">タコ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">horse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">馬</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quickling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">クイックリング</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">メタル</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bike</t>
+  </si>
+  <si>
+    <t xml:space="preserve">バイク</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">魚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">豚</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catgod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">猫の神</t>
+  </si>
+  <si>
+    <t xml:space="preserve">machinegod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">機械の神</t>
+  </si>
+  <si>
+    <t xml:space="preserve">undeadgod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">死霊の神</t>
+  </si>
+  <si>
+    <t xml:space="preserve">catsister</t>
+  </si>
+  <si>
+    <t xml:space="preserve">妹猫</t>
+  </si>
+  <si>
+    <t xml:space="preserve">demon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">悪魔</t>
+  </si>
+  <si>
+    <t xml:space="preserve">servant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apostle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">使徒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">god</t>
+  </si>
+  <si>
+    <t xml:space="preserve">神</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 15.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 11.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beta 22.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.200 Patch 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 17.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.27 fix 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpha 20.27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nhân mã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yerles là cư dân của Vương quốc mới đang trỗi dậy tại Sierre Terre. Tổ tiên họ là những nô lệ thoát khỏi tay Eulderna, mang trong lòng căm ghét đế quốc cùng mọi thứ mà nó tạo ra. Họ đã xây dựng nền văn minh cơ khí tiên tiến nhất tại Sierre, sở hữu khả năng học hỏi vượt trội, thành thạo vũ khí cơ khí, và có thể nhanh chóng đạt được thành tựu hơn bất kỳ chủng tộc nào khác.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eulderna là một trong những quốc gia cổ xưa nhất tại Sierre Terre. Họ sở hữu kiến thức sâu rộng về ma pháp và vũ khí ma thuật, được thế giới biết đến và e sợ dưới danh xưng Đế quốc sa mạc. Họ là những kẻ theo đuổi chủ nghĩa tàn nhẫn với ý thức chọn lọc, tin rằng chỉ mình họ xứng đáng quyết định cục diện thế giới. Người Eulderna thành thạo sử dụng ma pháp và đồ vật ma thuật, phù hợp với các vai trò pháp sư hoặc chiến binh trung gian.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiên là một chủng tộc duyên dáng, thần bí nhưng mong manh. So với con người, họ nổi bật về ma pháp, khả năng né tránh và tốc độ phi thường. Hầu hết các loại kháng tính của họ đều rất cao, nhưng cơ thể yếu ớt khiến họ không thể trang bị những vật nặng hơn 1s, khiến việc tăng cường phòng thủ trở nên khó khăn. Thêm vào đó, thể lực thấp khiến họ chỉ cần bị một đòn vật lý nghiêm trọng đánh trúng là có thể rơi vào tình trạng nguy hiểm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Là một chủng tộc thấp bé nhưng cứng cỏi và thô ráp. Họ từng xây dựng những thành phố vàng và ngọc sâu dưới lòng đất, nhưng phần lớn vẻ tráng lệ đó giờ chỉ còn là những tàn tích, nơi sinh sống của quái vật nguy hiểm. Họ thành thạo kỹ năng khai thác và sản xuất; cơ thể nhỏ bé nhưng rắn chắc, thậm chí có thể tồn tại trong môi trường tối tăm hoặc độc hại. Họ say mê rượu, và khi uống, sức mạnh của họ còn vượt xa bình thường.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juere là những người du mục từ Nam Tyris, không có quốc gia riêng. Họ đôi khi trở thành băng cướp và nhóm tội phạm, khiến danh tiếng của họ ở Tyris không mấy tốt đẹp. Họ ghét bị ràng buộc, yêu thích tự do và sống theo ý muốn. Juere khéo léo, nhạy bén và học hỏi nhanh, thành thạo nhiều kỹ năng khác nhau. Họ có thể kiếm sống bằng biểu diễn và biết cách sinh tồn chỉ với lượng thức ăn tối thiểu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elea là một trong những chủng tộc cổ xưa, hiền hòa, thần bí và xinh đẹp nhất tại Sierre Terre. Họ tránh giao tiếp với các chủng tộc khác và thích sống yên bình trong rừng. Elea sở hữu khả năng kháng thể và sức mạnh ma pháp lớn, có thể giảm bớt sát thương từ phản ứng ngược của ma thuật.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Con người biết rất ít về Hình thể Hỗn độn, còn được gọi là “Dị hình nhân”. Chúng chỉ vừa đủ giữ dáng người. Khi trưởng thành, Hình thể Hỗn độn sẽ mọc thêm các bộ phận cơ thể mới, nhưng không thể đoán trước được chúng sẽ ra sao.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ốc sên là loài sinh vật vô cùng chậm chạp. Chúng mong manh, yếu ớt, vụng về và khả năng học hỏi kém; gặp muối thì có thể tan ra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lich là sinh vật bất tử sở hữu trí tuệ cao và sức mạnh ma pháp phi thường. Họ có ma lực và khả năng thiền định vượt trội so với các chủng tộc khác, nhưng thể lực lại không đủ để chịu đựng chiến đấu cận chiến. Lich kháng được một số loại thuộc tính, nhưng lại yếu với lửa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hồn ma là sinh vật bất tử và bất diệt, sở hữu trí tuệ cao và sức mạnh ma pháp phi thường. So với các chủng tộc khác, họ có ma lực và kỹ năng thiền định vượt trội, nhưng thể lực không đủ để chịu đựng chiến đấu cận chiến. Hồn ma kháng nhiều loại thuộc tính, nhưng lại yếu trước lửa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golem là những vật thể được ban sự sống nhờ ma thuật. So với các chủng tộc khác, họ sở hữu sức mạnh thể chất vượt trội. Tuy nhiên, đổi lại, ma lực và tốc độ của họ lại thấp hơn hẳn. Golem có khả năng kháng độc mạnh, miễn nhiễm với chảy máu, và không bị rối loạn hay choáng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mifu là một chủng tộc lai giữa cáo và con người, sống ẩn mình ở những góc khuất của Tyris. Khác với chủng tộc chị em Nefu, Mifu có đặc điểm là tóc và lông trắng cùng đôi tai lớn dựng thẳng. Chúng có tính cách vui vẻ, thích nghịch ngợm, tuy khả năng chịu đựng kém, nhưng bù lại sở hữu kiến thức xuất sắc về chúc phúc và lời nguyền.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nefu là một chủng tộc lai giữa cáo và con người, đặc trưng bởi mái tóc và lông đỏ, vòng một đầy đặn, cùng nhiều chiếc đuôi xù, số lượng tăng theo tuổi tác. Giống như Mifu, họ sống xa các khu định cư của con người. Vẻ đẹp nổi bật và phong cách chiến đấu kết hợp ma pháp cùng kiếm dài của họ thường là đề tài được các nhà thám hiểm truyền tai nhau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Succubi, còn được gọi là “Hồn Trăng” hay “Lunar”, theo truyền thuyết sẽ xuất hiện bên gối của con người vào những đêm trăng sáng để quyến rũ. Thực tế, bất kể trăng sáng hay không, ngày hay đêm, chúng đều yêu thích những thú vui khoái lạc. Chúng sở hữu sức quyến rũ và ma lực cao, và càng trở nên mạnh mẽ khi đắm chìm trong khoái cảm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bán thần là những đứa trẻ sinh ra từ sự kết hợp giữa hiện thân của thần giáng xuống trần gian và con người. Phần lớn trong số họ chỉ là kết quả của trò đùa thoáng qua của các vị thần, và hiếm khi nhận thức được nguồn gốc hay năng lực đặc biệt của bản thân. Họ sở hữu nhan sắc như thần, khả năng cân bằng, sinh lực dồi dào và ma lực mạnh mẽ.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centaur là chủng tộc nửa người nửa thú, vừa sở hữu thể chất cường tráng vừa mang trí tuệ uyên thâm. Hình bóng cao quý của họ tung vó trên thảo nguyên và cả chiến trường đã được ca tụng trong vô số truyền thuyết. Dù kém cỏi về ma thuật, họ lại bù đắp bằng tài thiện xạ xuất chúng. Trong số họ, hiếm hoi có những cá nhân thức tỉnh “Giác Quan Thứ Bảy”, một ân huệ ban cho sức mạnh vượt xa loài thường, và mũi tên của họ được cho là chưa từng chệch mục tiêu.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shiba được hình thành từ nhiều chủng tộc khác nhau, vì vậy ngoại hình và sinh thái của họ cũng rất đa dạng. Tuy nhiên, nhìn chung họ nổi tiếng với thể hình rắn rỏi và tính cách thân thiện, ngoan ngoãn. Họ thông minh, dễ thương, có khả năng kháng lạnh và sở hữu năng lực đặc biệt biến mọi đòn tấn công thành thuộc tính băng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cua Cổ Đại là chủng loài cua lâu đời nhất, ưa sống gần nguồn nước và tiến hóa theo các thuộc tính khác nhau tùy theo môi trường sinh sống. Chúng nhìn chung rất ngon, nhưng hương vị cũng thay đổi theo từng thuộc tính. Cua Cổ Đại sở hữu sức mạnh và thể chất vượt trội, có thể kìm giữ kẻ thù bằng chiếc càng khổng lồ, đồng thời có khả năng phun hơi bọt.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -818,12 +813,17 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="darkGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="44"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -841,345 +841,51 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H91"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" colorId="64" zoomScale="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F92" sqref="F92"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="16" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
@@ -1188,7 +894,7 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
       <c r="G1" t="s">
@@ -1198,7 +904,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1215,7 +921,7 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G3" t="s">
         <v>11</v>
@@ -1224,7 +930,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1241,7 +947,7 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -1250,7 +956,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -1267,7 +973,7 @@
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -1276,7 +982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1293,7 +999,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G6" t="s">
         <v>24</v>
@@ -1302,7 +1008,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7">
       <c r="A7" t="s">
         <v>26</v>
       </c>
@@ -1319,7 +1025,7 @@
         <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G7" t="s">
         <v>28</v>
@@ -1328,7 +1034,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -1345,7 +1051,7 @@
         <v>31</v>
       </c>
       <c r="F8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
         <v>32</v>
@@ -1354,7 +1060,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1371,7 +1077,7 @@
         <v>36</v>
       </c>
       <c r="F9" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="G9" t="s">
         <v>37</v>
@@ -1380,7 +1086,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10">
       <c r="A10" t="s">
         <v>39</v>
       </c>
@@ -1397,7 +1103,7 @@
         <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G10" t="s">
         <v>41</v>
@@ -1406,7 +1112,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11">
       <c r="A11" t="s">
         <v>43</v>
       </c>
@@ -1423,7 +1129,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -1432,7 +1138,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -1449,7 +1155,7 @@
         <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="G12" t="s">
         <v>49</v>
@@ -1458,7 +1164,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1475,7 +1181,7 @@
         <v>52</v>
       </c>
       <c r="F13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="G13" t="s">
         <v>53</v>
@@ -1484,7 +1190,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1501,7 +1207,7 @@
         <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G14" t="s">
         <v>57</v>
@@ -1510,7 +1216,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1527,7 +1233,7 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
@@ -1536,7 +1242,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1553,7 +1259,7 @@
         <v>64</v>
       </c>
       <c r="F16" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G16" t="s">
         <v>65</v>
@@ -1562,7 +1268,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -1579,7 +1285,7 @@
         <v>68</v>
       </c>
       <c r="F17" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G17" t="s">
         <v>69</v>
@@ -1588,15 +1294,15 @@
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18">
       <c r="A18" t="s">
         <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="C18" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D18" t="s">
         <v>71</v>
@@ -1605,7 +1311,7 @@
         <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G18" t="s">
         <v>73</v>
@@ -1614,12 +1320,12 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19">
       <c r="A19" t="s">
         <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C19" t="s">
         <v>75</v>
@@ -1631,7 +1337,7 @@
         <v>76</v>
       </c>
       <c r="F19" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G19" t="s">
         <v>77</v>
@@ -1640,7 +1346,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20">
       <c r="A20" t="s">
         <v>79</v>
       </c>
@@ -1657,7 +1363,7 @@
         <v>81</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G20" t="s">
         <v>82</v>
@@ -1666,7 +1372,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -1682,8 +1388,10 @@
       <c r="E21" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
         <v>86</v>
       </c>
@@ -1699,8 +1407,10 @@
       <c r="E22" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G22"/>
+      <c r="H22"/>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
         <v>89</v>
       </c>
@@ -1716,8 +1426,10 @@
       <c r="E23" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G23"/>
+      <c r="H23"/>
+    </row>
+    <row r="24">
       <c r="A24" t="s">
         <v>91</v>
       </c>
@@ -1733,8 +1445,10 @@
       <c r="E24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G24"/>
+      <c r="H24"/>
+    </row>
+    <row r="25">
       <c r="A25" t="s">
         <v>93</v>
       </c>
@@ -1750,8 +1464,10 @@
       <c r="E25" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G25"/>
+      <c r="H25"/>
+    </row>
+    <row r="26">
       <c r="A26" t="s">
         <v>95</v>
       </c>
@@ -1767,8 +1483,10 @@
       <c r="E26" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G26"/>
+      <c r="H26"/>
+    </row>
+    <row r="27">
       <c r="A27" t="s">
         <v>97</v>
       </c>
@@ -1784,8 +1502,10 @@
       <c r="E27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G27"/>
+      <c r="H27"/>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -1801,8 +1521,10 @@
       <c r="E28" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G28"/>
+      <c r="H28"/>
+    </row>
+    <row r="29">
       <c r="A29" t="s">
         <v>101</v>
       </c>
@@ -1818,8 +1540,10 @@
       <c r="E29" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G29"/>
+      <c r="H29"/>
+    </row>
+    <row r="30">
       <c r="A30" t="s">
         <v>103</v>
       </c>
@@ -1835,8 +1559,10 @@
       <c r="E30" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G30"/>
+      <c r="H30"/>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>105</v>
       </c>
@@ -1852,8 +1578,10 @@
       <c r="E31" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G31"/>
+      <c r="H31"/>
+    </row>
+    <row r="32">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -1869,8 +1597,10 @@
       <c r="E32" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G32"/>
+      <c r="H32"/>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>109</v>
       </c>
@@ -1886,8 +1616,10 @@
       <c r="E33" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G33"/>
+      <c r="H33"/>
+    </row>
+    <row r="34">
       <c r="A34" t="s">
         <v>111</v>
       </c>
@@ -1903,8 +1635,10 @@
       <c r="E34" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G34"/>
+      <c r="H34"/>
+    </row>
+    <row r="35">
       <c r="A35" t="s">
         <v>113</v>
       </c>
@@ -1920,8 +1654,10 @@
       <c r="E35" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G35"/>
+      <c r="H35"/>
+    </row>
+    <row r="36">
       <c r="A36" t="s">
         <v>115</v>
       </c>
@@ -1937,13 +1673,15 @@
       <c r="E36" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G36"/>
+      <c r="H36"/>
+    </row>
+    <row r="37">
       <c r="A37" t="s">
         <v>117</v>
       </c>
       <c r="B37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C37" t="s">
         <v>117</v>
@@ -1954,8 +1692,10 @@
       <c r="E37" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G37"/>
+      <c r="H37"/>
+    </row>
+    <row r="38">
       <c r="A38" t="s">
         <v>119</v>
       </c>
@@ -1971,8 +1711,10 @@
       <c r="E38" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G38"/>
+      <c r="H38"/>
+    </row>
+    <row r="39">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -1988,8 +1730,10 @@
       <c r="E39" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G39"/>
+      <c r="H39"/>
+    </row>
+    <row r="40">
       <c r="A40" t="s">
         <v>123</v>
       </c>
@@ -2005,8 +1749,10 @@
       <c r="E40" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G40"/>
+      <c r="H40"/>
+    </row>
+    <row r="41">
       <c r="A41" t="s">
         <v>125</v>
       </c>
@@ -2022,8 +1768,10 @@
       <c r="E41" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G41"/>
+      <c r="H41"/>
+    </row>
+    <row r="42">
       <c r="A42" t="s">
         <v>127</v>
       </c>
@@ -2039,8 +1787,10 @@
       <c r="E42" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G42"/>
+      <c r="H42"/>
+    </row>
+    <row r="43">
       <c r="A43" t="s">
         <v>129</v>
       </c>
@@ -2056,8 +1806,10 @@
       <c r="E43" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G43"/>
+      <c r="H43"/>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>131</v>
       </c>
@@ -2073,8 +1825,10 @@
       <c r="E44" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G44"/>
+      <c r="H44"/>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>133</v>
       </c>
@@ -2090,8 +1844,10 @@
       <c r="E45" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G45"/>
+      <c r="H45"/>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>135</v>
       </c>
@@ -2107,8 +1863,10 @@
       <c r="E46" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G46"/>
+      <c r="H46"/>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>137</v>
       </c>
@@ -2124,8 +1882,10 @@
       <c r="E47" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G47"/>
+      <c r="H47"/>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>139</v>
       </c>
@@ -2141,8 +1901,10 @@
       <c r="E48" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G48"/>
+      <c r="H48"/>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -2158,8 +1920,10 @@
       <c r="E49" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G49"/>
+      <c r="H49"/>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>143</v>
       </c>
@@ -2175,8 +1939,10 @@
       <c r="E50" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G50"/>
+      <c r="H50"/>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
         <v>145</v>
       </c>
@@ -2192,8 +1958,10 @@
       <c r="E51" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G51"/>
+      <c r="H51"/>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>147</v>
       </c>
@@ -2209,8 +1977,10 @@
       <c r="E52" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G52"/>
+      <c r="H52"/>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>149</v>
       </c>
@@ -2226,8 +1996,10 @@
       <c r="E53" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G53"/>
+      <c r="H53"/>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>151</v>
       </c>
@@ -2243,8 +2015,10 @@
       <c r="E54" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G54"/>
+      <c r="H54"/>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -2260,8 +2034,10 @@
       <c r="E55" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G55"/>
+      <c r="H55"/>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -2277,8 +2053,10 @@
       <c r="E56" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G56"/>
+      <c r="H56"/>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>157</v>
       </c>
@@ -2294,8 +2072,10 @@
       <c r="E57" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G57"/>
+      <c r="H57"/>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
         <v>159</v>
       </c>
@@ -2311,8 +2091,10 @@
       <c r="E58" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G58"/>
+      <c r="H58"/>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
         <v>161</v>
       </c>
@@ -2328,8 +2110,10 @@
       <c r="E59" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G59"/>
+      <c r="H59"/>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>163</v>
       </c>
@@ -2345,8 +2129,10 @@
       <c r="E60" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G60"/>
+      <c r="H60"/>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>165</v>
       </c>
@@ -2362,8 +2148,10 @@
       <c r="E61" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G61"/>
+      <c r="H61"/>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>167</v>
       </c>
@@ -2379,8 +2167,10 @@
       <c r="E62" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G62"/>
+      <c r="H62"/>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>169</v>
       </c>
@@ -2396,8 +2186,10 @@
       <c r="E63" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G63"/>
+      <c r="H63"/>
+    </row>
+    <row r="64">
       <c r="A64" t="s">
         <v>171</v>
       </c>
@@ -2413,8 +2205,10 @@
       <c r="E64" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G64"/>
+      <c r="H64"/>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>173</v>
       </c>
@@ -2430,8 +2224,10 @@
       <c r="E65" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G65"/>
+      <c r="H65"/>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
         <v>175</v>
       </c>
@@ -2447,8 +2243,10 @@
       <c r="E66" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G66"/>
+      <c r="H66"/>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>177</v>
       </c>
@@ -2464,8 +2262,10 @@
       <c r="E67" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G67"/>
+      <c r="H67"/>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>179</v>
       </c>
@@ -2481,8 +2281,10 @@
       <c r="E68" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G68"/>
+      <c r="H68"/>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>181</v>
       </c>
@@ -2498,8 +2300,10 @@
       <c r="E69" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G69"/>
+      <c r="H69"/>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>183</v>
       </c>
@@ -2515,8 +2319,10 @@
       <c r="E70" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G70"/>
+      <c r="H70"/>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>185</v>
       </c>
@@ -2532,8 +2338,10 @@
       <c r="E71" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G71"/>
+      <c r="H71"/>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>187</v>
       </c>
@@ -2549,8 +2357,10 @@
       <c r="E72" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G72"/>
+      <c r="H72"/>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
         <v>189</v>
       </c>
@@ -2566,8 +2376,10 @@
       <c r="E73" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G73"/>
+      <c r="H73"/>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>191</v>
       </c>
@@ -2583,8 +2395,10 @@
       <c r="E74" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G74"/>
+      <c r="H74"/>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>193</v>
       </c>
@@ -2600,8 +2414,10 @@
       <c r="E75" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G75"/>
+      <c r="H75"/>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -2617,8 +2433,10 @@
       <c r="E76" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G76"/>
+      <c r="H76"/>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
         <v>197</v>
       </c>
@@ -2634,13 +2452,15 @@
       <c r="E77" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G77"/>
+      <c r="H77"/>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
         <v>199</v>
       </c>
       <c r="B78" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C78" t="s">
         <v>199</v>
@@ -2651,8 +2471,10 @@
       <c r="E78" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
         <v>201</v>
       </c>
@@ -2668,8 +2490,10 @@
       <c r="E79" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G79"/>
+      <c r="H79"/>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
         <v>203</v>
       </c>
@@ -2685,8 +2509,10 @@
       <c r="E80" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G80"/>
+      <c r="H80"/>
+    </row>
+    <row r="81">
       <c r="A81" t="s">
         <v>205</v>
       </c>
@@ -2702,8 +2528,10 @@
       <c r="E81" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G81"/>
+      <c r="H81"/>
+    </row>
+    <row r="82">
       <c r="A82" t="s">
         <v>207</v>
       </c>
@@ -2719,8 +2547,10 @@
       <c r="E82" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G82"/>
+      <c r="H82"/>
+    </row>
+    <row r="83">
       <c r="A83" t="s">
         <v>209</v>
       </c>
@@ -2736,13 +2566,15 @@
       <c r="E83" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G83"/>
+      <c r="H83"/>
+    </row>
+    <row r="84">
       <c r="A84" t="s">
         <v>211</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C84" t="s">
         <v>212</v>
@@ -2753,8 +2585,10 @@
       <c r="E84" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G84"/>
+      <c r="H84"/>
+    </row>
+    <row r="85">
       <c r="A85" t="s">
         <v>214</v>
       </c>
@@ -2770,8 +2604,10 @@
       <c r="E85" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G85"/>
+      <c r="H85"/>
+    </row>
+    <row r="86">
       <c r="A86" t="s">
         <v>216</v>
       </c>
@@ -2787,8 +2623,10 @@
       <c r="E86" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G86"/>
+      <c r="H86"/>
+    </row>
+    <row r="87">
       <c r="A87" t="s">
         <v>218</v>
       </c>
@@ -2804,8 +2642,10 @@
       <c r="E87" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G87"/>
+      <c r="H87"/>
+    </row>
+    <row r="88">
       <c r="A88" t="s">
         <v>220</v>
       </c>
@@ -2821,13 +2661,15 @@
       <c r="E88" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G88"/>
+      <c r="H88"/>
+    </row>
+    <row r="89">
       <c r="A89" t="s">
         <v>222</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C89" t="s">
         <v>222</v>
@@ -2838,8 +2680,10 @@
       <c r="E89" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G89"/>
+      <c r="H89"/>
+    </row>
+    <row r="90">
       <c r="A90" t="s">
         <v>224</v>
       </c>
@@ -2855,13 +2699,15 @@
       <c r="E90" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G90"/>
+      <c r="H90"/>
+    </row>
+    <row r="91">
       <c r="A91" t="s">
         <v>227</v>
       </c>
       <c r="B91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C91" t="s">
         <v>227</v>
@@ -2872,9 +2718,11 @@
       <c r="E91" t="s">
         <v>228</v>
       </c>
+      <c r="G91"/>
+      <c r="H91"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H91" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:H2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Game/Race.xlsx
+++ b/data/Game/Race.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">yerles</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.209 Patch 2</t>
+    <t xml:space="preserve">EA 23.222 Patch 1</t>
   </si>
   <si>
     <t xml:space="preserve">イエルス</t>
